--- a/Solina/Production/Input/GHI_2024-02-16.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-16.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3190.35</v>
+        <v>3190.89</v>
       </c>
       <c r="H2">
-        <v>6463.33</v>
+        <v>6465.37</v>
       </c>
       <c r="I2">
-        <v>765.97</v>
+        <v>765.75</v>
       </c>
       <c r="J2">
-        <v>2455.67</v>
+        <v>3190.89</v>
       </c>
       <c r="K2">
-        <v>3183.06</v>
+        <v>6145.72</v>
       </c>
       <c r="L2">
-        <v>1190.84</v>
+        <v>768.08</v>
       </c>
     </row>
   </sheetData>
@@ -869,22 +869,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>8.199999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I9">
-        <v>61</v>
+        <v>61.04</v>
       </c>
       <c r="J9">
         <v>9.35</v>
       </c>
       <c r="K9">
-        <v>4.45</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.08</v>
       </c>
       <c r="M9">
-        <v>4.45</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>115.04</v>
+        <v>115.07</v>
       </c>
       <c r="I10">
-        <v>445.78</v>
+        <v>445.95</v>
       </c>
       <c r="J10">
-        <v>50.47</v>
+        <v>50.46</v>
       </c>
       <c r="K10">
-        <v>49.85</v>
+        <v>115.07</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>409.2</v>
       </c>
       <c r="M10">
-        <v>49.85</v>
+        <v>46.13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>262.92</v>
+        <v>262.96</v>
       </c>
       <c r="I11">
-        <v>646.9299999999999</v>
+        <v>647.1</v>
       </c>
       <c r="J11">
-        <v>74.09999999999999</v>
+        <v>74.09</v>
       </c>
       <c r="K11">
-        <v>87.56999999999999</v>
+        <v>262.96</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>627.99</v>
       </c>
       <c r="M11">
-        <v>87.56999999999999</v>
+        <v>71.81999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>390.07</v>
+        <v>390.13</v>
       </c>
       <c r="I12">
-        <v>743.84</v>
+        <v>744.01</v>
       </c>
       <c r="J12">
-        <v>87.90000000000001</v>
+        <v>87.87</v>
       </c>
       <c r="K12">
-        <v>184.52</v>
+        <v>390.13</v>
       </c>
       <c r="L12">
-        <v>29.94</v>
+        <v>727.55</v>
       </c>
       <c r="M12">
-        <v>171.36</v>
+        <v>87.51000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>476.95</v>
+        <v>477.02</v>
       </c>
       <c r="I13">
-        <v>792.6900000000001</v>
+        <v>792.88</v>
       </c>
       <c r="J13">
-        <v>95.64</v>
+        <v>95.61</v>
       </c>
       <c r="K13">
-        <v>329.15</v>
+        <v>477.02</v>
       </c>
       <c r="L13">
-        <v>182.53</v>
+        <v>768.65</v>
       </c>
       <c r="M13">
-        <v>238.96</v>
+        <v>100.47</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>513.27</v>
+        <v>513.34</v>
       </c>
       <c r="I14">
-        <v>810.39</v>
+        <v>810.5700000000001</v>
       </c>
       <c r="J14">
-        <v>98.59</v>
+        <v>98.55</v>
       </c>
       <c r="K14">
-        <v>427.37</v>
+        <v>513.34</v>
       </c>
       <c r="L14">
-        <v>377.21</v>
+        <v>781.96</v>
       </c>
       <c r="M14">
-        <v>230.97</v>
+        <v>106.43</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>495.07</v>
+        <v>495.14</v>
       </c>
       <c r="I15">
-        <v>801.75</v>
+        <v>801.95</v>
       </c>
       <c r="J15">
-        <v>97.11</v>
+        <v>97.08</v>
       </c>
       <c r="K15">
-        <v>453.23</v>
+        <v>495.14</v>
       </c>
       <c r="L15">
-        <v>591.64</v>
+        <v>775.52</v>
       </c>
       <c r="M15">
-        <v>154.99</v>
+        <v>103.43</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>424.3</v>
+        <v>424.37</v>
       </c>
       <c r="I16">
-        <v>764.45</v>
+        <v>764.67</v>
       </c>
       <c r="J16">
-        <v>91.05</v>
+        <v>91.02</v>
       </c>
       <c r="K16">
-        <v>415.01</v>
+        <v>424.37</v>
       </c>
       <c r="L16">
-        <v>709.21</v>
+        <v>745.62</v>
       </c>
       <c r="M16">
-        <v>100.06</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>309.05</v>
+        <v>309.12</v>
       </c>
       <c r="I17">
-        <v>686.88</v>
+        <v>687.13</v>
       </c>
       <c r="J17">
-        <v>79.51000000000001</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="K17">
-        <v>309.05</v>
+        <v>309.12</v>
       </c>
       <c r="L17">
-        <v>668.8200000000001</v>
+        <v>668.99</v>
       </c>
       <c r="M17">
-        <v>77.95</v>
+        <v>77.95999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,19 +1238,19 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>165.01</v>
+        <v>165.06</v>
       </c>
       <c r="I18">
-        <v>532.75</v>
+        <v>533.04</v>
       </c>
       <c r="J18">
-        <v>59.97</v>
+        <v>59.96</v>
       </c>
       <c r="K18">
-        <v>165.01</v>
+        <v>165.06</v>
       </c>
       <c r="L18">
-        <v>508.91</v>
+        <v>509.2</v>
       </c>
       <c r="M18">
         <v>55.76</v>
@@ -1279,19 +1279,19 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>30.45</v>
+        <v>30.47</v>
       </c>
       <c r="I19">
-        <v>176.86</v>
+        <v>177.03</v>
       </c>
       <c r="J19">
         <v>22.28</v>
       </c>
       <c r="K19">
-        <v>30.45</v>
+        <v>30.47</v>
       </c>
       <c r="L19">
-        <v>114.79</v>
+        <v>114.97</v>
       </c>
       <c r="M19">
         <v>18.91</v>

--- a/Solina/Production/Input/GHI_2024-02-16.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-16.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3190.89</v>
+        <v>3190.91</v>
       </c>
       <c r="H2">
-        <v>6465.37</v>
+        <v>6465.48</v>
       </c>
       <c r="I2">
-        <v>765.75</v>
+        <v>765.74</v>
       </c>
       <c r="J2">
-        <v>3190.89</v>
+        <v>3190.91</v>
       </c>
       <c r="K2">
-        <v>6145.72</v>
+        <v>6145.8</v>
       </c>
       <c r="L2">
-        <v>768.08</v>
+        <v>768.09</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +881,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="L9">
-        <v>16.08</v>
+        <v>16.07</v>
       </c>
       <c r="M9">
         <v>7.26</v>
@@ -913,7 +913,7 @@
         <v>115.07</v>
       </c>
       <c r="I10">
-        <v>445.95</v>
+        <v>445.94</v>
       </c>
       <c r="J10">
         <v>50.46</v>
@@ -922,7 +922,7 @@
         <v>115.07</v>
       </c>
       <c r="L10">
-        <v>409.2</v>
+        <v>409.19</v>
       </c>
       <c r="M10">
         <v>46.13</v>
@@ -995,7 +995,7 @@
         <v>390.13</v>
       </c>
       <c r="I12">
-        <v>744.01</v>
+        <v>744.02</v>
       </c>
       <c r="J12">
         <v>87.87</v>
@@ -1036,7 +1036,7 @@
         <v>477.02</v>
       </c>
       <c r="I13">
-        <v>792.88</v>
+        <v>792.87</v>
       </c>
       <c r="J13">
         <v>95.61</v>
@@ -1045,7 +1045,7 @@
         <v>477.02</v>
       </c>
       <c r="L13">
-        <v>768.65</v>
+        <v>768.64</v>
       </c>
       <c r="M13">
         <v>100.47</v>
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>513.34</v>
+        <v>513.35</v>
       </c>
       <c r="I14">
-        <v>810.5700000000001</v>
+        <v>810.58</v>
       </c>
       <c r="J14">
         <v>98.55</v>
       </c>
       <c r="K14">
-        <v>513.34</v>
+        <v>513.35</v>
       </c>
       <c r="L14">
-        <v>781.96</v>
+        <v>781.95</v>
       </c>
       <c r="M14">
-        <v>106.43</v>
+        <v>106.44</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,10 +1115,10 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>495.14</v>
+        <v>495.15</v>
       </c>
       <c r="I15">
-        <v>801.95</v>
+        <v>801.96</v>
       </c>
       <c r="J15">
         <v>97.08</v>
@@ -1156,19 +1156,19 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>424.37</v>
+        <v>424.38</v>
       </c>
       <c r="I16">
-        <v>764.67</v>
+        <v>764.6799999999999</v>
       </c>
       <c r="J16">
         <v>91.02</v>
       </c>
       <c r="K16">
-        <v>424.37</v>
+        <v>424.38</v>
       </c>
       <c r="L16">
-        <v>745.62</v>
+        <v>745.63</v>
       </c>
       <c r="M16">
         <v>92.41</v>
@@ -1200,16 +1200,16 @@
         <v>309.12</v>
       </c>
       <c r="I17">
-        <v>687.13</v>
+        <v>687.15</v>
       </c>
       <c r="J17">
-        <v>79.48999999999999</v>
+        <v>79.48</v>
       </c>
       <c r="K17">
         <v>309.12</v>
       </c>
       <c r="L17">
-        <v>668.99</v>
+        <v>669.01</v>
       </c>
       <c r="M17">
         <v>77.95999999999999</v>
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>165.06</v>
+        <v>165.07</v>
       </c>
       <c r="I18">
-        <v>533.04</v>
+        <v>533.08</v>
       </c>
       <c r="J18">
         <v>59.96</v>
       </c>
       <c r="K18">
-        <v>165.06</v>
+        <v>165.07</v>
       </c>
       <c r="L18">
-        <v>509.2</v>
+        <v>509.24</v>
       </c>
       <c r="M18">
-        <v>55.76</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,7 +1282,7 @@
         <v>30.47</v>
       </c>
       <c r="I19">
-        <v>177.03</v>
+        <v>177.07</v>
       </c>
       <c r="J19">
         <v>22.28</v>
@@ -1291,7 +1291,7 @@
         <v>30.47</v>
       </c>
       <c r="L19">
-        <v>114.97</v>
+        <v>115</v>
       </c>
       <c r="M19">
         <v>18.91</v>
